--- a/Supporting Data.xlsx
+++ b/Supporting Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\111111111111当前阶段重要工作\0 DCA\10 Science Advances 投稿\模板\For submission to Science Advances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA42D01A-6BED-4A0E-B451-42BDC6355B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF2B2E2-3F21-418A-8B02-DD6A9BB5073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig.3" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Fig.2 &amp; Fig.S1" sheetId="1" r:id="rId3"/>
     <sheet name="Fig.S2" sheetId="5" r:id="rId4"/>
     <sheet name="Fig.S3" sheetId="6" r:id="rId5"/>
+    <sheet name="Validation parameters" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="100">
   <si>
     <t>ui/u0</t>
   </si>
@@ -113,33 +114,6 @@
         <family val="1"/>
       </rPr>
       <t>θ</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Radius </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=5 nm</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -635,179 +609,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Static contact angle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=60°</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Static contact angle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0°</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Static contact angle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=0°</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Static contact angle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=30°</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Experimental data</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1254,120 +1055,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Static contact angle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=90°</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Static contact angle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=120°</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Static contact angle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>=170°</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <i/>
@@ -1390,6 +1077,382 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Researchers</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Pore materials</t>
+  </si>
+  <si>
+    <t>Pore dimensions, nm</t>
+  </si>
+  <si>
+    <t>Temperature, K</t>
+  </si>
+  <si>
+    <t>Static contact angle, °</t>
+  </si>
+  <si>
+    <t>True slip length, nm</t>
+  </si>
+  <si>
+    <t>Bulk surface tension, mN/m</t>
+  </si>
+  <si>
+    <t>Tolman length, nm</t>
+  </si>
+  <si>
+    <t>Viscosity, Pa·s</t>
+  </si>
+  <si>
+    <r>
+      <t>Molecular volume, cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Sobolev et al. 2000(Sobolev et al., 2000)</t>
+  </si>
+  <si>
+    <t>Experiments</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>49-181</t>
+  </si>
+  <si>
+    <t>Heshmati and Piri 2014(Heshmati &amp; Piri, 2014)</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>375,000-650,000</t>
+  </si>
+  <si>
+    <t>MD by ourselves</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>49-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water jump length, nm </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface displacement length, nm </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Radius </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=5 nm</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Static contact angle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=60°</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Static contact angle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0°</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Static contact angle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=0°</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Static contact angle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=30°</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Static contact angle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=90°</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Static contact angle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=120°</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Static contact angle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=170°</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A summary of various parameters used to validate the new model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1403,7 +1466,7 @@
     <numFmt numFmtId="180" formatCode="0.E+00"/>
     <numFmt numFmtId="181" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1493,10 +1556,28 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1504,14 +1585,12 @@
       <b/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="1"/>
       <charset val="134"/>
@@ -1531,7 +1610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1828,11 +1907,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2023,15 +2111,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2048,18 +2127,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,25 +2165,68 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2402,7 +2512,7 @@
   <dimension ref="B1:AB30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2439,136 +2549,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="68"/>
+      <c r="B1" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="99"/>
     </row>
     <row r="2" spans="2:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="2:28" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="F3" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+      <c r="J3" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="F3" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="J3" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
       <c r="N3" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="64"/>
       <c r="P3" s="65"/>
       <c r="R3" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="64"/>
       <c r="T3" s="65"/>
       <c r="V3" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W3" s="64"/>
       <c r="X3" s="65"/>
       <c r="Z3" s="63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="64"/>
       <c r="AB3" s="65"/>
     </row>
     <row r="4" spans="2:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="28" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>22</v>
       </c>
       <c r="R4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T4" s="28" t="s">
         <v>22</v>
       </c>
       <c r="V4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X4" s="28" t="s">
         <v>22</v>
       </c>
       <c r="Z4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="AA4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="AB4" s="28" t="s">
         <v>22</v>
@@ -4023,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF05E52-C32A-4632-BB94-6E6116998499}">
   <dimension ref="B1:AH47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4063,31 +4173,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="77"/>
+      <c r="B1" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="102"/>
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
@@ -4099,54 +4209,54 @@
       <c r="AH1" s="16"/>
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="Z2" s="85" t="s">
+      <c r="Z2" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="87"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="80"/>
     </row>
     <row r="3" spans="2:34" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="F3" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="J3" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="N3" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="R3" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="V3" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="F3" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="J3" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="N3" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="R3" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="V3" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
       <c r="Z3" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>0</v>
@@ -4172,55 +4282,55 @@
     </row>
     <row r="4" spans="2:34" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="P4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="R4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="V4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X4" s="26" t="s">
         <v>22</v>
@@ -4823,17 +4933,17 @@
       <c r="X11" s="1">
         <v>60.013710925906878</v>
       </c>
-      <c r="Z11" s="88" t="s">
+      <c r="Z11" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="90"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="83"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12" s="33">
@@ -5858,31 +5968,31 @@
       </c>
     </row>
     <row r="25" spans="2:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="77"/>
+      <c r="B25" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="102"/>
       <c r="Z25" s="5">
         <v>298.14999999999998</v>
       </c>
@@ -5951,88 +6061,88 @@
       </c>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="F27" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="J27" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="N27" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="R27" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="V27" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="F27" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="J27" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="N27" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="R27" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="V27" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
     </row>
     <row r="28" spans="2:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="P28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="R28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S28" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="V28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W28" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W28" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X28" s="26" t="s">
         <v>22</v>
@@ -6093,17 +6203,17 @@
       <c r="X29" s="1">
         <v>150.00001724960774</v>
       </c>
-      <c r="Z29" s="82" t="s">
+      <c r="Z29" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="83"/>
-      <c r="AH29" s="84"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="77"/>
     </row>
     <row r="30" spans="2:34" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B30" s="33">
@@ -6161,10 +6271,10 @@
         <v>150.00017249636244</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>16</v>
@@ -6841,17 +6951,17 @@
       <c r="X38" s="1">
         <v>162.99794228770196</v>
       </c>
-      <c r="Z38" s="79" t="s">
+      <c r="Z38" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="80"/>
-      <c r="AC38" s="80"/>
-      <c r="AD38" s="80"/>
-      <c r="AE38" s="80"/>
-      <c r="AF38" s="80"/>
-      <c r="AG38" s="80"/>
-      <c r="AH38" s="81"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="74"/>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="33">
@@ -7435,6 +7545,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="B25:X25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="V27:X27"/>
     <mergeCell ref="Z38:AH38"/>
     <mergeCell ref="Z29:AH29"/>
     <mergeCell ref="Z2:AH2"/>
@@ -7445,14 +7563,6 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="V3:X3"/>
-    <mergeCell ref="B1:X1"/>
-    <mergeCell ref="B25:X25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="V27:X27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7464,8 +7574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AU63"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1:AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7492,287 +7602,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="AA1" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AK1" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+    </row>
+    <row r="2" spans="2:47" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="G2" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="L2" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="Q2" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="V2" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="AA2" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AF2" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AK2" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AQ2" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+    </row>
+    <row r="3" spans="2:47" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="85"/>
+      <c r="G3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="85"/>
+      <c r="L3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="85"/>
+      <c r="Q3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="85"/>
+      <c r="V3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="85"/>
+      <c r="AA3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="85"/>
+      <c r="AF3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="85"/>
+      <c r="AK3" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN3" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="AA1" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AK1" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
-      <c r="AU1" s="93"/>
-    </row>
-    <row r="2" spans="2:47" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="G2" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="L2" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="Q2" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="V2" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="AA2" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AF2" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AK2" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AQ2" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-    </row>
-    <row r="3" spans="2:47" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="92" t="s">
+      <c r="AQ3" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR3" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS3" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92" t="s">
+      <c r="AT3" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="G3" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="92"/>
-      <c r="L3" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="92"/>
-      <c r="Q3" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="92"/>
-      <c r="V3" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" s="92"/>
-      <c r="AA3" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD3" s="92"/>
-      <c r="AF3" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI3" s="92"/>
-      <c r="AK3" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL3" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM3" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN3" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO3" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ3" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR3" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS3" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT3" s="58" t="s">
-        <v>50</v>
-      </c>
       <c r="AU3" s="58" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:47" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="R4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="T4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="W4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Y4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AB4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AG4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH4" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AI4" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK4" s="2">
         <v>0.05</v>
@@ -11049,6 +11159,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AK1:AU1"/>
@@ -11065,16 +11185,6 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11086,8 +11196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075E149D-C246-4299-8288-470FE29BEF30}">
   <dimension ref="B1:AB62"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD47" sqref="AD47"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11123,133 +11233,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
+      <c r="B1" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
     </row>
     <row r="3" spans="2:28" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="F3" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="J3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="F3" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="J3" s="94" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="N3" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="R3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="N3" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="R3" s="94" t="s">
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="V3" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="V3" s="94" t="s">
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Z3" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Z3" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
     </row>
     <row r="4" spans="2:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="P4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="R4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="V4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="Z4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="AA4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="AB4" s="26" t="s">
         <v>22</v>
@@ -12824,133 +12934,133 @@
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B34" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="96"/>
-      <c r="Z34" s="96"/>
-      <c r="AA34" s="96"/>
-      <c r="AB34" s="96"/>
+      <c r="B34" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="105"/>
+      <c r="X34" s="105"/>
+      <c r="Y34" s="105"/>
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="105"/>
+      <c r="AB34" s="105"/>
     </row>
     <row r="36" spans="2:28" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="F36" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="J36" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="F36" s="94" t="s">
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="N36" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="J36" s="94" t="s">
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="R36" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="N36" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="R36" s="94" t="s">
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="V36" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="V36" s="94" t="s">
+      <c r="W36" s="86"/>
+      <c r="X36" s="86"/>
+      <c r="Z36" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Z36" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="94"/>
+      <c r="AA36" s="86"/>
+      <c r="AB36" s="86"/>
     </row>
     <row r="37" spans="2:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K37" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L37" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O37" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="P37" s="26" t="s">
         <v>22</v>
       </c>
       <c r="R37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S37" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T37" s="26" t="s">
         <v>22</v>
       </c>
       <c r="V37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W37" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W37" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X37" s="26" t="s">
         <v>22</v>
       </c>
       <c r="Z37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA37" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="AA37" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="AB37" s="26" t="s">
         <v>22</v>
@@ -14366,8 +14476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD6BDAB-6787-4438-BE35-C0D8C736E55A}">
   <dimension ref="B1:X125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI23" sqref="AI23"/>
+    <sheetView topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113:X113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14400,115 +14510,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="68"/>
+      <c r="B1" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="99"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="F3" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="J3" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="N3" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="R3" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="V3" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="F3" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="J3" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="N3" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="R3" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="V3" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
     </row>
     <row r="4" spans="2:24" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="P4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="R4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="V4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W4" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X4" s="26" t="s">
         <v>22</v>
@@ -16218,115 +16328,115 @@
     </row>
     <row r="37" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:24" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="68"/>
+      <c r="B38" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
+      <c r="X38" s="99"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="F40" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="J40" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="N40" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="R40" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="V40" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="F40" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="J40" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="N40" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="R40" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="V40" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="86"/>
     </row>
     <row r="41" spans="2:24" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J41" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N41" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O41" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="P41" s="26" t="s">
         <v>22</v>
       </c>
       <c r="R41" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S41" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T41" s="26" t="s">
         <v>22</v>
       </c>
       <c r="V41" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W41" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W41" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X41" s="26" t="s">
         <v>22</v>
@@ -17505,115 +17615,115 @@
     </row>
     <row r="65" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:24" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="67"/>
-      <c r="T66" s="67"/>
-      <c r="U66" s="67"/>
-      <c r="V66" s="67"/>
-      <c r="W66" s="67"/>
-      <c r="X66" s="68"/>
+      <c r="B66" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="98"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="98"/>
+      <c r="P66" s="98"/>
+      <c r="Q66" s="98"/>
+      <c r="R66" s="98"/>
+      <c r="S66" s="98"/>
+      <c r="T66" s="98"/>
+      <c r="U66" s="98"/>
+      <c r="V66" s="98"/>
+      <c r="W66" s="98"/>
+      <c r="X66" s="99"/>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="F68" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="J68" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" s="86"/>
+      <c r="L68" s="86"/>
+      <c r="N68" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="O68" s="86"/>
+      <c r="P68" s="86"/>
+      <c r="R68" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="S68" s="86"/>
+      <c r="T68" s="86"/>
+      <c r="V68" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="F68" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="J68" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="K68" s="94"/>
-      <c r="L68" s="94"/>
-      <c r="N68" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="O68" s="94"/>
-      <c r="P68" s="94"/>
-      <c r="R68" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="S68" s="94"/>
-      <c r="T68" s="94"/>
-      <c r="V68" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="W68" s="94"/>
-      <c r="X68" s="94"/>
+      <c r="W68" s="86"/>
+      <c r="X68" s="86"/>
     </row>
     <row r="69" spans="2:24" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B69" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D69" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F69" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J69" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K69" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L69" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N69" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O69" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="P69" s="26" t="s">
         <v>22</v>
       </c>
       <c r="R69" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S69" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T69" s="26" t="s">
         <v>22</v>
       </c>
       <c r="V69" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W69" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W69" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X69" s="26" t="s">
         <v>22</v>
@@ -18615,115 +18725,115 @@
     </row>
     <row r="90" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:24" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
-      <c r="M91" s="67"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="67"/>
-      <c r="P91" s="67"/>
-      <c r="Q91" s="67"/>
-      <c r="R91" s="67"/>
-      <c r="S91" s="67"/>
-      <c r="T91" s="67"/>
-      <c r="U91" s="67"/>
-      <c r="V91" s="67"/>
-      <c r="W91" s="67"/>
-      <c r="X91" s="68"/>
+      <c r="B91" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="98"/>
+      <c r="D91" s="98"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="98"/>
+      <c r="H91" s="98"/>
+      <c r="I91" s="98"/>
+      <c r="J91" s="98"/>
+      <c r="K91" s="98"/>
+      <c r="L91" s="98"/>
+      <c r="M91" s="98"/>
+      <c r="N91" s="98"/>
+      <c r="O91" s="98"/>
+      <c r="P91" s="98"/>
+      <c r="Q91" s="98"/>
+      <c r="R91" s="98"/>
+      <c r="S91" s="98"/>
+      <c r="T91" s="98"/>
+      <c r="U91" s="98"/>
+      <c r="V91" s="98"/>
+      <c r="W91" s="98"/>
+      <c r="X91" s="99"/>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="94" t="s">
+      <c r="B93" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="86"/>
+      <c r="D93" s="86"/>
+      <c r="F93" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G93" s="86"/>
+      <c r="H93" s="86"/>
+      <c r="J93" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="K93" s="86"/>
+      <c r="L93" s="86"/>
+      <c r="N93" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="O93" s="86"/>
+      <c r="P93" s="86"/>
+      <c r="R93" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="S93" s="86"/>
+      <c r="T93" s="86"/>
+      <c r="V93" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="94"/>
-      <c r="D93" s="94"/>
-      <c r="F93" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G93" s="94"/>
-      <c r="H93" s="94"/>
-      <c r="J93" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="K93" s="94"/>
-      <c r="L93" s="94"/>
-      <c r="N93" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="O93" s="94"/>
-      <c r="P93" s="94"/>
-      <c r="R93" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="S93" s="94"/>
-      <c r="T93" s="94"/>
-      <c r="V93" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="W93" s="94"/>
-      <c r="X93" s="94"/>
+      <c r="W93" s="86"/>
+      <c r="X93" s="86"/>
     </row>
     <row r="94" spans="2:24" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B94" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D94" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F94" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H94" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J94" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K94" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L94" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N94" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O94" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O94" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="P94" s="26" t="s">
         <v>22</v>
       </c>
       <c r="R94" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S94" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S94" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T94" s="26" t="s">
         <v>22</v>
       </c>
       <c r="V94" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W94" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W94" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X94" s="26" t="s">
         <v>22</v>
@@ -19683,115 +19793,115 @@
     </row>
     <row r="112" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="2:24" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
-      <c r="L113" s="67"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="67"/>
-      <c r="O113" s="67"/>
-      <c r="P113" s="67"/>
-      <c r="Q113" s="67"/>
-      <c r="R113" s="67"/>
-      <c r="S113" s="67"/>
-      <c r="T113" s="67"/>
-      <c r="U113" s="67"/>
-      <c r="V113" s="67"/>
-      <c r="W113" s="67"/>
-      <c r="X113" s="68"/>
+      <c r="B113" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="98"/>
+      <c r="D113" s="98"/>
+      <c r="E113" s="98"/>
+      <c r="F113" s="98"/>
+      <c r="G113" s="98"/>
+      <c r="H113" s="98"/>
+      <c r="I113" s="98"/>
+      <c r="J113" s="98"/>
+      <c r="K113" s="98"/>
+      <c r="L113" s="98"/>
+      <c r="M113" s="98"/>
+      <c r="N113" s="98"/>
+      <c r="O113" s="98"/>
+      <c r="P113" s="98"/>
+      <c r="Q113" s="98"/>
+      <c r="R113" s="98"/>
+      <c r="S113" s="98"/>
+      <c r="T113" s="98"/>
+      <c r="U113" s="98"/>
+      <c r="V113" s="98"/>
+      <c r="W113" s="98"/>
+      <c r="X113" s="99"/>
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B115" s="94" t="s">
+      <c r="B115" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="F115" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115" s="86"/>
+      <c r="H115" s="86"/>
+      <c r="J115" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="K115" s="86"/>
+      <c r="L115" s="86"/>
+      <c r="N115" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="O115" s="86"/>
+      <c r="P115" s="86"/>
+      <c r="R115" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="S115" s="86"/>
+      <c r="T115" s="86"/>
+      <c r="V115" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="94"/>
-      <c r="D115" s="94"/>
-      <c r="F115" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G115" s="94"/>
-      <c r="H115" s="94"/>
-      <c r="J115" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="K115" s="94"/>
-      <c r="L115" s="94"/>
-      <c r="N115" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="O115" s="94"/>
-      <c r="P115" s="94"/>
-      <c r="R115" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="S115" s="94"/>
-      <c r="T115" s="94"/>
-      <c r="V115" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="W115" s="94"/>
-      <c r="X115" s="94"/>
+      <c r="W115" s="86"/>
+      <c r="X115" s="86"/>
     </row>
     <row r="116" spans="2:24" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B116" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="D116" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F116" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G116" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="H116" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J116" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K116" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="K116" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="L116" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N116" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O116" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O116" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="P116" s="26" t="s">
         <v>22</v>
       </c>
       <c r="R116" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S116" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="S116" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="T116" s="26" t="s">
         <v>22</v>
       </c>
       <c r="V116" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W116" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="W116" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="X116" s="26" t="s">
         <v>22</v>
@@ -20267,6 +20377,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B113:X113"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="N115:P115"/>
+    <mergeCell ref="R115:T115"/>
+    <mergeCell ref="V115:X115"/>
+    <mergeCell ref="B91:X91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="V93:X93"/>
+    <mergeCell ref="B66:X66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="V68:X68"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="B38:X38"/>
     <mergeCell ref="B40:D40"/>
@@ -20281,27 +20412,250 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="V3:X3"/>
-    <mergeCell ref="B66:X66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="B91:X91"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="V93:X93"/>
-    <mergeCell ref="B113:X113"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="N115:P115"/>
-    <mergeCell ref="R115:T115"/>
-    <mergeCell ref="V115:X115"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CF284F-FA2D-424F-A95A-2DF449E9E7BC}">
+  <dimension ref="A2:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.109375" style="93" customWidth="1"/>
+    <col min="2" max="2" width="12" style="93" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="93" customWidth="1"/>
+    <col min="4" max="4" width="18" style="93" customWidth="1"/>
+    <col min="5" max="5" width="16" style="93" customWidth="1"/>
+    <col min="6" max="6" width="19" style="93" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="93" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="93" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="93" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="93" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" style="93" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" style="93" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="93" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="88">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="F5" s="88">
+        <v>25</v>
+      </c>
+      <c r="G5" s="88">
+        <v>0.1128</v>
+      </c>
+      <c r="H5" s="88">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="I5" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="J5" s="88">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="K5" s="88">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="L5" s="88">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M5" s="95">
+        <v>2.99E-23</v>
+      </c>
+      <c r="N5" s="94"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="88">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="F6" s="88">
+        <v>0</v>
+      </c>
+      <c r="G6" s="88">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="H6" s="88">
+        <v>72.8</v>
+      </c>
+      <c r="I6" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="J6" s="88">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="K6" s="88">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="L6" s="88">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M6" s="95">
+        <v>2.99E-23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="89">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="F7" s="89">
+        <v>25</v>
+      </c>
+      <c r="G7" s="89">
+        <v>0.1128</v>
+      </c>
+      <c r="H7" s="89">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="I7" s="89">
+        <v>0.21</v>
+      </c>
+      <c r="J7" s="89">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="K7" s="89">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="L7" s="89">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M7" s="96">
+        <v>2.99E-23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
